--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/68.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/68.xlsx
@@ -479,13 +479,13 @@
         <v>-4.003182041699263</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.635594022121715</v>
+        <v>-8.632373315622649</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.04811338454123</v>
+        <v>-3.042771724981806</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.430899409432532</v>
+        <v>-5.424667473279871</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.782073968574308</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.880904500467135</v>
+        <v>-8.877618332453864</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.139903519764572</v>
+        <v>-3.133737045126118</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.35745159049045</v>
+        <v>-5.350132993201925</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.664021023219363</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.70050884296487</v>
+        <v>-9.697759459368109</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.024730531665907</v>
+        <v>-3.018092734125152</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.231228698793369</v>
+        <v>-5.223661347750851</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.655086912843573</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.47212989554768</v>
+        <v>-10.47061118841804</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.928200982813861</v>
+        <v>-2.922257077323717</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.440574621232568</v>
+        <v>-5.433557146909403</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.726889728293587</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.24982577664905</v>
+        <v>-11.24807140806826</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.775230516411133</v>
+        <v>-2.76898548795563</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.993564125307516</v>
+        <v>-4.986271712624673</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.857166853376508</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.91323894624499</v>
+        <v>-11.91306874630805</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.746309619433761</v>
+        <v>-2.740797759937394</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.1298288132842</v>
+        <v>-5.121777047036539</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.017666441453334</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.4122258844517</v>
+        <v>-12.41255319202274</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.625336741176212</v>
+        <v>-2.619851066285529</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.690084545436305</v>
+        <v>-4.682294625245478</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.185488488287851</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.38659433884148</v>
+        <v>-13.38646341581306</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.371882850463237</v>
+        <v>-2.365598545099208</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.608467129520984</v>
+        <v>-4.601580578226237</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.341900496224577</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.13495036927454</v>
+        <v>-14.13555261520526</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.347243136515108</v>
+        <v>-2.340186385283418</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.236868297964274</v>
+        <v>-4.229693716007008</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.47021451911299</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.83074080379807</v>
+        <v>-14.83042658852987</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.170929094145583</v>
+        <v>-2.164880450232706</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.021827223788923</v>
+        <v>-4.014364611169139</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.563813868636288</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.49373501970308</v>
+        <v>-15.49259598935585</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.157142899253246</v>
+        <v>-2.151565578242671</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.506121414853333</v>
+        <v>-3.498829002170492</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.620707698719242</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.46340333737268</v>
+        <v>-16.46184535333451</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.99151217600257</v>
+        <v>-1.985555178209584</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.865685236744619</v>
+        <v>-2.858523747090195</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.647912894374146</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.10631396071848</v>
+        <v>-17.10533203800535</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.71216171026866</v>
+        <v>-1.707094989068912</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.500567095094563</v>
+        <v>-2.493693636102656</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.651845349548665</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.01104445629312</v>
+        <v>-18.00972213370611</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.543650680392804</v>
+        <v>-1.539186205123775</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.905613577058005</v>
+        <v>-1.899551840842286</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.644759942379075</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.92689031698038</v>
+        <v>-18.92497884076549</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.377234418971624</v>
+        <v>-1.37265211297702</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.5518071850632</v>
+        <v>-1.545064649099711</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.638948919165496</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.71587176313132</v>
+        <v>-19.71389482540222</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.13137406390685</v>
+        <v>-1.126241881192894</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.025810826094013</v>
+        <v>-1.020010935935128</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.642640032522885</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.70157815178203</v>
+        <v>-20.69875021436822</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.033587653981998</v>
+        <v>-1.028678040416351</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6614651303116182</v>
+        <v>-0.6550629942220142</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.66278778607357</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.54045436406279</v>
+        <v>-21.53728602677509</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8811016027844147</v>
+        <v>-0.8753671741397387</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2946318969892955</v>
+        <v>-0.2890414836758785</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.702552603457059</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18881138539075</v>
+        <v>-22.18459566387571</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6255005744053967</v>
+        <v>-0.6193471920697855</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08418079343320654</v>
+        <v>0.09142083690468106</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.764976308548645</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81970327472785</v>
+        <v>-22.81618144526342</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3249536703707331</v>
+        <v>-0.3187871957322801</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4019833526132651</v>
+        <v>0.4093805037188403</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.844612970797922</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.44969179516886</v>
+        <v>-23.4459081196476</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.05578901624768685</v>
+        <v>-0.05030334135700364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3677338883793097</v>
+        <v>0.3763093467406403</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.939112385683765</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.95982028309388</v>
+        <v>-23.95544745394474</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06083721746640896</v>
+        <v>0.0658777540604735</v>
       </c>
       <c r="G23" t="n">
-        <v>0.628532560986493</v>
+        <v>0.6364403119028955</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.042649732870666</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34029569597728</v>
+        <v>-24.33505877484059</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03995499443385588</v>
+        <v>0.0441314390403665</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5593397404679707</v>
+        <v>0.5681246756747689</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.150069629087758</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.61491984038532</v>
+        <v>-24.61080885729302</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3259432577085201</v>
+        <v>0.3302768099491314</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5478839754814604</v>
+        <v>0.5563939723285823</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.253363732306303</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63167798802273</v>
+        <v>-24.62772411256453</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3386166068593109</v>
+        <v>0.3420991594152101</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3894409264908916</v>
+        <v>0.3979378310351718</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.345993267276723</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60541482852223</v>
+        <v>-24.60080633792194</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1575369662553977</v>
+        <v>0.1611766264453975</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3658616890729429</v>
+        <v>0.3742276705888058</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.423444258139507</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.71686960261384</v>
+        <v>-24.71288954254996</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2744905075405367</v>
+        <v>0.2787324136612559</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0766265346935306</v>
+        <v>0.08398440889058065</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.477485004900323</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76074190943647</v>
+        <v>-24.75605486501913</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2233912495492798</v>
+        <v>0.2275546018529487</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01995538336988261</v>
+        <v>-0.01308192437797642</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.503410673088876</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.53535791601615</v>
+        <v>-24.5323597786654</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09508668170036436</v>
+        <v>0.09860851116478866</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2168636181094427</v>
+        <v>-0.2095581131237595</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.493715240340439</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.0622413682247</v>
+        <v>-24.05857552342902</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09454989728385359</v>
+        <v>0.09808481905111963</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6774377397785241</v>
+        <v>-0.6711534344144955</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.446060130733292</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.14402898407696</v>
+        <v>-24.13888370906016</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1564633974223762</v>
+        <v>0.15914731950493</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.737230286856687</v>
+        <v>-0.7326087039535577</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.353871767683154</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.72131780222615</v>
+        <v>-23.71704971149975</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0704993369636028</v>
+        <v>0.07395570491381848</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.201627360955552</v>
+        <v>-1.198223362216704</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.21272947866427</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16117671744574</v>
+        <v>-23.15679079599376</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.08557400521261366</v>
+        <v>-0.08215691417092316</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.275559595102779</v>
+        <v>-1.271867565701413</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.020619151179745</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.81776561390727</v>
+        <v>-22.81348443087802</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2770620265756991</v>
+        <v>-0.2735140125055914</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.299426863183246</v>
+        <v>-1.296310895106915</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.779124691321808</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.09272697483532</v>
+        <v>-22.08925751458226</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4071733322167728</v>
+        <v>-0.4031932721528881</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.503431126063022</v>
+        <v>-1.500878127008885</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.490712315963654</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28146242924777</v>
+        <v>-21.27760019990946</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3439244171883942</v>
+        <v>-0.340441864632495</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.630151525268088</v>
+        <v>-1.628056756813412</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.158658390254616</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.90748079857386</v>
+        <v>-20.90414226134922</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4009937652754781</v>
+        <v>-0.3977861510792552</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.879572986705812</v>
+        <v>-1.877870987336387</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.793895975898908</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.25327151787565</v>
+        <v>-20.25014245749648</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2502620826586859</v>
+        <v>-0.2468842685255206</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.033381360490409</v>
+        <v>-2.031352053549942</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.406332249217035</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.94815540014923</v>
+        <v>-19.94517035510131</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5310265170995014</v>
+        <v>-0.5270857339441418</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.257652508169177</v>
+        <v>-2.255714847348602</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.005589844950207</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.41514156685687</v>
+        <v>-19.41224816792885</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2528936355298728</v>
+        <v>-0.2486124525006284</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.097258706055191</v>
+        <v>-2.093933261133393</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.60069472898934</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.85450297456848</v>
+        <v>-18.85006468390513</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005142561177706265</v>
+        <v>0.009070252030224086</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.071034823463214</v>
+        <v>-2.068259255260768</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.205098121970599</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.95214218580819</v>
+        <v>-17.94742895678517</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.003734020148984009</v>
+        <v>0.0004293321546848807</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.958833788109621</v>
+        <v>-1.95525958943383</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.826825602985445</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.61618060258666</v>
+        <v>-17.6116113888949</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04153916307770474</v>
+        <v>0.04468131575971899</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.159787544427274</v>
+        <v>-2.155087407707095</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.471149877980774</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.10461196134906</v>
+        <v>-17.09883825579585</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0117410818099362</v>
+        <v>0.01513198824594326</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.202769574656661</v>
+        <v>-2.198252730176266</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.14590577928146</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.72699067048515</v>
+        <v>-16.72044451906429</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03157592061515119</v>
+        <v>0.03622368812396395</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.144181519439937</v>
+        <v>-2.139140982845873</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.857479114788707</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06239919363345</v>
+        <v>-16.05772524151896</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03846247190989911</v>
+        <v>0.04269128572777663</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.434320042715429</v>
+        <v>-2.429279506121364</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.6082141933259695</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.41196049615366</v>
+        <v>-15.40761385161021</v>
       </c>
       <c r="F48" t="n">
-        <v>0.008939329001806825</v>
+        <v>0.01383585026461237</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.368347928695971</v>
+        <v>-2.363268115193381</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.3971167957479592</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.87497969510027</v>
+        <v>-14.86987369699199</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1578119046150739</v>
+        <v>0.1622240106727356</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.551849645325603</v>
+        <v>-2.546782924125856</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2264881210222313</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.17994861414155</v>
+        <v>-14.17613875401461</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3062393419317224</v>
+        <v>0.3111882324058948</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.464288323920139</v>
+        <v>-2.459064495086291</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.09370900427949011</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41529266667054</v>
+        <v>-13.41127332969813</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2994444367568665</v>
+        <v>0.3040136504486289</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.53028662254528</v>
+        <v>-2.524107055603986</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.00536563902243636</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.82670200781506</v>
+        <v>-12.82208042491193</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3846622359536616</v>
+        <v>0.3896242187306757</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.539713080591323</v>
+        <v>-2.532878898507942</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07398179652229205</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17673463323757</v>
+        <v>-12.17388051121808</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4331561256794149</v>
+        <v>0.4382097545763212</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.559835950059056</v>
+        <v>-2.552844660341575</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1146939029792351</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.79949301915608</v>
+        <v>-11.79540822066946</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3245423813044555</v>
+        <v>0.3300804254065056</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.6649933264838</v>
+        <v>-2.657962759857793</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1318457220907569</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34401180329243</v>
+        <v>-11.34008411243991</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07468887387295514</v>
+        <v>0.0796901335584945</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.129848631182126</v>
+        <v>-3.122791879950436</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1300459782121858</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90170144408756</v>
+        <v>-10.899017522005</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1662826245536707</v>
+        <v>0.1715980995074115</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.198282098135828</v>
+        <v>-3.191133700784246</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1126523146949094</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14503180135</v>
+        <v>-10.14223004854187</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1039370784213712</v>
+        <v>0.1103130299052918</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.562195747924446</v>
+        <v>-3.55464148918477</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.08369153514392307</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.841840252141305</v>
+        <v>-9.839143237755909</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.07005962634516827</v>
+        <v>-0.06439065921470088</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.597178381117538</v>
+        <v>-3.589637214680704</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04687010183105532</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.297475392285175</v>
+        <v>-9.29394047051791</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02076167846788547</v>
+        <v>0.02709835304328088</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.881058783634684</v>
+        <v>-3.873386694169433</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.005708317987003681</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.936271849184795</v>
+        <v>-8.933967603884652</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.116864609004339</v>
+        <v>-0.1107505035772529</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.795212553901486</v>
+        <v>-3.788470017937998</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.03676350092973499</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.409463767439423</v>
+        <v>-8.407840321887049</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1412555691984746</v>
+        <v>-0.1354033098282231</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.196544005211758</v>
+        <v>-4.189801469248269</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.07727987952877294</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.899780417811026</v>
+        <v>-7.898615202858113</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.08457899019664249</v>
+        <v>-0.07917186912300961</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.155643651134205</v>
+        <v>-4.149058222804817</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1125809958765255</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.414265459228456</v>
+        <v>-7.412236152287989</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1403652926052373</v>
+        <v>-0.1338976950014246</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.158419219336651</v>
+        <v>-4.152069452458414</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1396293926160957</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.066101849758435</v>
+        <v>-7.066677911083471</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2983632032991875</v>
+        <v>-0.2922621901749431</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.407461003991965</v>
+        <v>-4.40029951433754</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.155673744004574</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.69014328135543</v>
+        <v>-6.689462481607659</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2453131921845134</v>
+        <v>-0.239408563602895</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.69088317590965</v>
+        <v>-4.683093255718823</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.157702788059719</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.441729927236519</v>
+        <v>-6.440577804586447</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3621619950469186</v>
+        <v>-0.3561264434368829</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.683433655592708</v>
+        <v>-4.675381889345046</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1430209870241235</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.279765048781526</v>
+        <v>-6.279699587267317</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4173198669191105</v>
+        <v>-0.4116639920914849</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.797991305457812</v>
+        <v>-4.789572954730581</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1097005123618734</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.00324252046143</v>
+        <v>-6.003504366518264</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3871028319604067</v>
+        <v>-0.3816171570697235</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.798253151514646</v>
+        <v>-4.790934554226121</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.05716098189118005</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.868627462642802</v>
+        <v>-5.868417985797334</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6412767993296766</v>
+        <v>-0.6352674323253243</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.898291437528274</v>
+        <v>-4.890357502006188</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.01518728498389624</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.632088827201337</v>
+        <v>-5.632848180766158</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5869961117478804</v>
+        <v>-0.5809998370463698</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.764658302422776</v>
+        <v>-4.756148305575655</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1061739939546912</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.508903349763536</v>
+        <v>-5.509649611025515</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6862881364995308</v>
+        <v>-0.6798860004099267</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.741458741787238</v>
+        <v>-4.732804729608858</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2127774509331015</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.489238710895264</v>
+        <v>-5.490482479665229</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7795577019439873</v>
+        <v>-0.7739411040248869</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.643161732051559</v>
+        <v>-4.635502734889149</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.3315424601622236</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.522610990838824</v>
+        <v>-5.523789298094579</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.838407603217546</v>
+        <v>-0.8320447440364672</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.455038432518797</v>
+        <v>-4.446227312706315</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.4590263980523206</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.760301748930361</v>
+        <v>-5.761650256123058</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7301342587164714</v>
+        <v>-0.723653568809817</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.340336767322435</v>
+        <v>-4.330412801768406</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.5913519245268997</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.963782319696468</v>
+        <v>-5.966060380390927</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.061605182063292</v>
+        <v>-1.055739830390199</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.173370629181902</v>
+        <v>-4.162595663943161</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.7234729826824676</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.490655862956049</v>
+        <v>-6.492174570085689</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9737296453896267</v>
+        <v>-0.9685450934643032</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.009664474448959</v>
+        <v>-3.99920372447842</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.8518377354099715</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.955249321597541</v>
+        <v>-6.95630979812772</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.03246171593761</v>
+        <v>-1.027905594548689</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.929199181183711</v>
+        <v>-3.918803892727381</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.972387800218752</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.5286790937623</v>
+        <v>-7.529176601270287</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.123387759173397</v>
+        <v>-1.117614053620196</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.527618976119447</v>
+        <v>-3.517537902931318</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.080604663702655</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.954283674541132</v>
+        <v>-7.954244397632607</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.088522956705881</v>
+        <v>-1.083299127872032</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.318403976708665</v>
+        <v>-3.308165795886435</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.17262974994738</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.427177653184277</v>
+        <v>-8.427478776149638</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.274224180212923</v>
+        <v>-1.269563320401269</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.950863759032889</v>
+        <v>-2.940612485907817</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.245230615827644</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.369679442457295</v>
+        <v>-9.369823457788554</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.198066254582603</v>
+        <v>-1.193457763982315</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.927572552277458</v>
+        <v>-2.917085617701236</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.294757020961155</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19465162912014</v>
+        <v>-10.19412793700647</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.29043245113098</v>
+        <v>-1.285889422044901</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.751873848141494</v>
+        <v>-2.740823944543078</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.317845471893849</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02814690493294</v>
+        <v>-11.02778032045338</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.398260657335436</v>
+        <v>-1.393717628249357</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.378861047877877</v>
+        <v>-2.368256282576079</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.31075794575292</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24579653072768</v>
+        <v>-12.24575725381915</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.47504701350216</v>
+        <v>-1.470831291987124</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.272708656437162</v>
+        <v>-2.261514737507486</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.268787461287312</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.1325120175921</v>
+        <v>-13.13218471002106</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.573265469420789</v>
+        <v>-1.568945009483019</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.927307522866745</v>
+        <v>-1.915851757880235</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.187607944154867</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32643839063763</v>
+        <v>-14.32689662123709</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.781289069272974</v>
+        <v>-1.776680578672686</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.684785705026611</v>
+        <v>-1.673761986033878</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.064027741558985</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42874482839675</v>
+        <v>-15.42890193603085</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.823799776600059</v>
+        <v>-1.819806624233332</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.27010010481778</v>
+        <v>-1.258853816676737</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.8921497721022384</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84190181252698</v>
+        <v>-16.84072350527122</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.846737491178763</v>
+        <v>-1.841605308464806</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9640020643782242</v>
+        <v>-0.9527034070258146</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.6670905540422425</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53770852270723</v>
+        <v>-18.53782635343281</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.074923237407206</v>
+        <v>-2.070511131349545</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7534385577747439</v>
+        <v>-0.74157693140014</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3878760632899411</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15102063268177</v>
+        <v>-20.15053621747663</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.296300986157952</v>
+        <v>-2.291339003380938</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4629596346253676</v>
+        <v>-0.4511896543706558</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05324953002289818</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.97892867853504</v>
+        <v>-21.97852281714695</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.506196785316505</v>
+        <v>-2.501025325694023</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6266003278441017</v>
+        <v>-0.6153933166115841</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3395365116739742</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.70229468619712</v>
+        <v>-23.70169244026641</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.608905901109846</v>
+        <v>-2.602909626408335</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4480082247801164</v>
+        <v>-0.4363429829481385</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.7895198072573135</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.77995150105916</v>
+        <v>-25.77916596288865</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.783845251680989</v>
+        <v>-2.777443115591385</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4473405173351884</v>
+        <v>-0.4366964751248651</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.288520373020612</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.04680518428698</v>
+        <v>-28.04510318491755</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.65679754490488</v>
+        <v>-2.650892916323261</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.58251854417601</v>
+        <v>-0.571573379000327</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.834154703862655</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.32888521571972</v>
+        <v>-30.32772000076681</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.146148548220075</v>
+        <v>-3.139955888975939</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9674977092369651</v>
+        <v>-0.9567620209067497</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.426244013310127</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51111025337863</v>
+        <v>-32.50977483848877</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.206268402869281</v>
+        <v>-3.200560158830288</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.191009503350912</v>
+        <v>-1.180876060951417</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.048909138019384</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.73667081344364</v>
+        <v>-34.73534849085662</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.586743815752682</v>
+        <v>-3.581834202187035</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.426526939170723</v>
+        <v>-1.416550604405328</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.703496688483554</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24291725413241</v>
+        <v>-37.24251139274433</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.833690831953319</v>
+        <v>-3.83020827939742</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.85460596518664</v>
+        <v>-1.844446338181461</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.36578765715924</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.77779656113605</v>
+        <v>-39.7778751149531</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.72955465515023</v>
+        <v>-3.727918117295014</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.332880880297735</v>
+        <v>-2.322433222630038</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.055324928158051</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.34515787149001</v>
+        <v>-42.34489602543317</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.911027064839395</v>
+        <v>-3.908500250390942</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.695917345795957</v>
+        <v>-2.685718441882253</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.711343571487949</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59178394682736</v>
+        <v>-44.59213743900409</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.156075697127982</v>
+        <v>-4.155355620471687</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.304251197336759</v>
+        <v>-3.294287954874205</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.40239460477656</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89815020003151</v>
+        <v>-46.89972127637252</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.300863474254631</v>
+        <v>-4.300876566557473</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.582816124900165</v>
+        <v>-3.574882189378079</v>
       </c>
     </row>
   </sheetData>
